--- a/inkar-indicators/src/out/output.xlsx
+++ b/inkar-indicators/src/out/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juliu\VSCODE\VSCODE\inkar-indicators\src\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3966B8-9A6A-43FF-804A-3BD1530FD324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D643980-A3A8-49EB-944F-E66993BDB06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17532" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3456" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3462" uniqueCount="1060">
   <si>
     <t>select</t>
   </si>
@@ -3197,6 +3197,9 @@
   </si>
   <si>
     <t>Zuweisungen für Investitionsfördermaßnahmen</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -3564,13 +3567,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q546"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
+      <selection activeCell="E440" sqref="E440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -3677,6 +3680,9 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>1059</v>
+      </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
@@ -6498,6 +6504,9 @@
       <c r="A86" s="1">
         <v>84</v>
       </c>
+      <c r="B86" s="2" t="s">
+        <v>1059</v>
+      </c>
       <c r="C86" t="s">
         <v>152</v>
       </c>
@@ -9715,6 +9724,9 @@
       <c r="A184" s="1">
         <v>182</v>
       </c>
+      <c r="B184" s="2" t="s">
+        <v>1059</v>
+      </c>
       <c r="C184" t="s">
         <v>256</v>
       </c>
@@ -13052,6 +13064,9 @@
       <c r="A285" s="1">
         <v>283</v>
       </c>
+      <c r="B285" s="2" t="s">
+        <v>1059</v>
+      </c>
       <c r="C285" t="s">
         <v>562</v>
       </c>
@@ -18147,6 +18162,9 @@
       <c r="A440" s="1">
         <v>438</v>
       </c>
+      <c r="B440" s="2" t="s">
+        <v>1059</v>
+      </c>
       <c r="C440" t="s">
         <v>861</v>
       </c>
@@ -21355,6 +21373,9 @@
     <row r="540" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>538</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>1059</v>
       </c>
       <c r="C540" t="s">
         <v>1039</v>
